--- a/KNIGHT_DATA/INTERACTION_MASK.xlsx
+++ b/KNIGHT_DATA/INTERACTION_MASK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burcutepekule/Library/CloudStorage/Dropbox/criticalwindow/code/R/RStan/KNIGHT_DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65CA030A-C4F4-BC4F-A613-EE225DE401D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E08AA03B-AC92-BE49-BA19-EB1B6F543DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="3160" windowWidth="27240" windowHeight="16440" xr2:uid="{98F64777-BF8B-9C40-BE41-ABA005F37008}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,9 +78,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -104,9 +110,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,7 +431,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -434,319 +441,206 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>-1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>-1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <v>-1</v>
       </c>
     </row>
